--- a/biology/Zoologie/Calumma_gehringi/Calumma_gehringi.xlsx
+++ b/biology/Zoologie/Calumma_gehringi/Calumma_gehringi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calumma gehringi est une espèce de sauriens de la famille des Chamaeleonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calumma gehringi est une espèce de sauriens de la famille des Chamaeleonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Calumma gehringi a été décrite en 2017 par David Prötzel (d), Miguel Vences, Mark David Scherz (d), David R. Vieites (d) et Frank Glaw[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Calumma gehringi a été décrite en 2017 par David Prötzel (d), Miguel Vences, Mark David Scherz (d), David R. Vieites (d) et Frank Glaw,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cette espèce se rencontre à Madagascar, dans le district de Bealanana, à des altitudes comprises entre 730 et 1 540 m.
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calumma gehringi mesure de 137 à 179 mm de longueur totale dont 93 à 127 mm pour la queue[2]. Sa coloration varie du gris au verdâtre. Cette espèce mène une vie diurne et arboricole[2]. On la trouve fréquemment entre 0,50 et au moins 4 m de hauteur perchée dans les buissons ou les branches basses des arbres à proximité des rivières et peut être abondante par endroit[2]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calumma gehringi mesure de 137 à 179 mm de longueur totale dont 93 à 127 mm pour la queue. Sa coloration varie du gris au verdâtre. Cette espèce mène une vie diurne et arboricole. On la trouve fréquemment entre 0,50 et au moins 4 m de hauteur perchée dans les buissons ou les branches basses des arbres à proximité des rivières et peut être abondante par endroit. 
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, gehringi, lui a été donnée en l'honneur de l'herpétologiste allemand Philip-Sebastian Gehring (d) (1979-) dont l'étude génétique du groupe Calumma nasutum[3] aura permis la description de cette nouvelle espèce[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, gehringi, lui a été donnée en l'honneur de l'herpétologiste allemand Philip-Sebastian Gehring (d) (1979-) dont l'étude génétique du groupe Calumma nasutum aura permis la description de cette nouvelle espèce.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) David Prötzel, Miguel Vences, Mark D. Scherz, David R. Vieites et Frank Glaw, « Splitting and lumping: An integrative taxonomic assessment of Malagasy chameleons in the Calumma guibei complex results in the new species C. gehringi sp. nov. », Vertebrate Zoology, vol. 67, no 2,‎ 24 octobre 2017, p. 231-249 (ISSN 1864-5755 et 2625-8498, lire en ligne)</t>
         </is>
